--- a/pms-server/uploadfiles/template/master_bom_delete_template.xlsx
+++ b/pms-server/uploadfiles/template/master_bom_delete_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Part No.</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Dep</t>
+  </si>
+  <si>
+    <t>Project Name</t>
   </si>
 </sst>
 </file>
@@ -35,7 +38,7 @@
   </numFmts>
   <fonts count="5">
     <font>
-      <name val="DejaVu Sans"/>
+      <name val="文泉驿正黑"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -123,17 +126,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.76078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -146,6 +149,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
